--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H2">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I2">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J2">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N2">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O2">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P2">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q2">
-        <v>40.08780660469576</v>
+        <v>46.30336083150867</v>
       </c>
       <c r="R2">
-        <v>40.08780660469576</v>
+        <v>416.730247483578</v>
       </c>
       <c r="S2">
-        <v>0.08606037280271056</v>
+        <v>0.09078777319161138</v>
       </c>
       <c r="T2">
-        <v>0.08606037280271056</v>
+        <v>0.1071423406249714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H3">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I3">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J3">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P3">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q3">
-        <v>20.01010392286776</v>
+        <v>24.14997685663267</v>
       </c>
       <c r="R3">
-        <v>20.01010392286776</v>
+        <v>217.349791709694</v>
       </c>
       <c r="S3">
-        <v>0.04295762600344569</v>
+        <v>0.04735126310638461</v>
       </c>
       <c r="T3">
-        <v>0.04295762600344569</v>
+        <v>0.05588114987752189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H4">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I4">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J4">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5437617507394</v>
+        <v>21.177737</v>
       </c>
       <c r="N4">
-        <v>20.5437617507394</v>
+        <v>42.355474</v>
       </c>
       <c r="O4">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="P4">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
       <c r="Q4">
-        <v>28.46895202979925</v>
+        <v>33.549580355767</v>
       </c>
       <c r="R4">
-        <v>28.46895202979925</v>
+        <v>201.297482134602</v>
       </c>
       <c r="S4">
-        <v>0.06111705360053338</v>
+        <v>0.06578122273017462</v>
       </c>
       <c r="T4">
-        <v>0.06111705360053338</v>
+        <v>0.05175406279733635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H5">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I5">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J5">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N5">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O5">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P5">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q5">
-        <v>59.51875801378407</v>
+        <v>64.68979468549223</v>
       </c>
       <c r="R5">
-        <v>59.51875801378407</v>
+        <v>582.20815216943</v>
       </c>
       <c r="S5">
-        <v>0.127774676073711</v>
+        <v>0.1268383612388211</v>
       </c>
       <c r="T5">
-        <v>0.127774676073711</v>
+        <v>0.1496871046223502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H6">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I6">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J6">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N6">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O6">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P6">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q6">
-        <v>29.70919673805078</v>
+        <v>33.73960370176556</v>
       </c>
       <c r="R6">
-        <v>29.70919673805078</v>
+        <v>303.6564333158901</v>
       </c>
       <c r="S6">
-        <v>0.06377960690536331</v>
+        <v>0.06615380467947211</v>
       </c>
       <c r="T6">
-        <v>0.06377960690536331</v>
+        <v>0.0780707932955528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H7">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I7">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J7">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.5437617507394</v>
+        <v>21.177737</v>
       </c>
       <c r="N7">
-        <v>20.5437617507394</v>
+        <v>42.355474</v>
       </c>
       <c r="O7">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="P7">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
       <c r="Q7">
-        <v>42.26813114213057</v>
+        <v>46.87166171147834</v>
       </c>
       <c r="R7">
-        <v>42.26813114213057</v>
+        <v>281.22997026887</v>
       </c>
       <c r="S7">
-        <v>0.09074108642650253</v>
+        <v>0.0919020502218042</v>
       </c>
       <c r="T7">
-        <v>0.09074108642650253</v>
+        <v>0.07230489615392083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H8">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I8">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J8">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N8">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O8">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P8">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q8">
-        <v>33.95779469998071</v>
+        <v>36.86456692692623</v>
       </c>
       <c r="R8">
-        <v>33.95779469998071</v>
+        <v>331.7811023423361</v>
       </c>
       <c r="S8">
-        <v>0.07290048318822027</v>
+        <v>0.07228097228508906</v>
       </c>
       <c r="T8">
-        <v>0.07290048318822027</v>
+        <v>0.08530171278601963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H9">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I9">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J9">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N9">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O9">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P9">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q9">
-        <v>16.95026638994082</v>
+        <v>19.22708032694756</v>
       </c>
       <c r="R9">
-        <v>16.95026638994082</v>
+        <v>173.043722942528</v>
       </c>
       <c r="S9">
-        <v>0.03638877674221989</v>
+        <v>0.03769885763177621</v>
       </c>
       <c r="T9">
-        <v>0.03638877674221989</v>
+        <v>0.04448995391737702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H10">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I10">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J10">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.5437617507394</v>
+        <v>21.177737</v>
       </c>
       <c r="N10">
-        <v>20.5437617507394</v>
+        <v>42.355474</v>
       </c>
       <c r="O10">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="P10">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
       <c r="Q10">
-        <v>24.11563291263436</v>
+        <v>26.71060433163733</v>
       </c>
       <c r="R10">
-        <v>24.11563291263436</v>
+        <v>160.263625989824</v>
       </c>
       <c r="S10">
-        <v>0.05177136228230365</v>
+        <v>0.05237192817808148</v>
       </c>
       <c r="T10">
-        <v>0.05177136228230365</v>
+        <v>0.04120416050738288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H11">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I11">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J11">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N11">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O11">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P11">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q11">
-        <v>43.59280364406398</v>
+        <v>44.77281590987867</v>
       </c>
       <c r="R11">
-        <v>43.59280364406398</v>
+        <v>402.955343188908</v>
       </c>
       <c r="S11">
-        <v>0.09358488904414275</v>
+        <v>0.08778680819232863</v>
       </c>
       <c r="T11">
-        <v>0.09358488904414275</v>
+        <v>0.1036007798745147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H12">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I12">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J12">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N12">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O12">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P12">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q12">
-        <v>21.75964726153689</v>
+        <v>23.35170598014267</v>
       </c>
       <c r="R12">
-        <v>21.75964726153689</v>
+        <v>210.165353821284</v>
       </c>
       <c r="S12">
-        <v>0.04671353995117282</v>
+        <v>0.04578608006181118</v>
       </c>
       <c r="T12">
-        <v>0.04671353995117282</v>
+        <v>0.05403401375988428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H13">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I13">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J13">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.5437617507394</v>
+        <v>21.177737</v>
       </c>
       <c r="N13">
-        <v>20.5437617507394</v>
+        <v>42.355474</v>
       </c>
       <c r="O13">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="P13">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
       <c r="Q13">
-        <v>30.95807780218994</v>
+        <v>32.440608157762</v>
       </c>
       <c r="R13">
-        <v>30.95807780218994</v>
+        <v>194.643648946572</v>
       </c>
       <c r="S13">
-        <v>0.06646070071091646</v>
+        <v>0.0636068424134921</v>
       </c>
       <c r="T13">
-        <v>0.06646070071091646</v>
+        <v>0.05004334641377999</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H14">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I14">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J14">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N14">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O14">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P14">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q14">
-        <v>33.68142832967916</v>
+        <v>34.43547780455967</v>
       </c>
       <c r="R14">
-        <v>33.68142832967916</v>
+        <v>206.612866827358</v>
       </c>
       <c r="S14">
-        <v>0.07230718076354989</v>
+        <v>0.06751821665907504</v>
       </c>
       <c r="T14">
-        <v>0.07230718076354989</v>
+        <v>0.053120660880252</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H15">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I15">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J15">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N15">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O15">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P15">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q15">
-        <v>16.81231621858193</v>
+        <v>17.96016481510567</v>
       </c>
       <c r="R15">
-        <v>16.81231621858193</v>
+        <v>107.760988890634</v>
       </c>
       <c r="S15">
-        <v>0.03609262576313505</v>
+        <v>0.03521479522082987</v>
       </c>
       <c r="T15">
-        <v>0.03609262576313505</v>
+        <v>0.02770560727838467</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H16">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I16">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J16">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.5437617507394</v>
+        <v>21.177737</v>
       </c>
       <c r="N16">
-        <v>20.5437617507394</v>
+        <v>42.355474</v>
       </c>
       <c r="O16">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="P16">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
       <c r="Q16">
-        <v>23.91936722475701</v>
+        <v>24.9505826131555</v>
       </c>
       <c r="R16">
-        <v>23.91936722475701</v>
+        <v>99.802330452622</v>
       </c>
       <c r="S16">
-        <v>0.05135001974207282</v>
+        <v>0.04892102418924821</v>
       </c>
       <c r="T16">
-        <v>0.05135001974207282</v>
+        <v>0.02565941721075132</v>
       </c>
     </row>
   </sheetData>
